--- a/MDA-MB-231-Cell-Count-Data/GH1909_500nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_500nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -351,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1817</v>
+        <v>1417.8624717407686</v>
       </c>
       <c r="C1">
-        <v>1940</v>
+        <v>1585.5476391740131</v>
       </c>
       <c r="D1">
-        <v>1798</v>
+        <v>1476.573705179283</v>
       </c>
       <c r="E1">
-        <v>2046</v>
+        <v>1734.4564315352698</v>
       </c>
       <c r="F1">
-        <v>2025</v>
+        <v>1676.4533046884869</v>
       </c>
       <c r="G1">
-        <v>1800</v>
+        <v>1491.80699023631</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -374,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1957</v>
+        <v>1527.1088922381311</v>
       </c>
       <c r="C2">
-        <v>2112</v>
+        <v>1726.1219659461419</v>
       </c>
       <c r="D2">
-        <v>1975</v>
+        <v>1621.9316283254082</v>
       </c>
       <c r="E2">
-        <v>2106</v>
+        <v>1785.3202565069785</v>
       </c>
       <c r="F2">
-        <v>2066</v>
+        <v>1710.3963098698341</v>
       </c>
       <c r="G2">
-        <v>1825</v>
+        <v>1512.5265317673698</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -397,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2004</v>
+        <v>1563.7844762622456</v>
       </c>
       <c r="C3">
-        <v>2188</v>
+        <v>1788.2362033570828</v>
       </c>
       <c r="D3">
-        <v>2062</v>
+        <v>1693.3787430921477</v>
       </c>
       <c r="E3">
-        <v>2144</v>
+        <v>1817.5340123223941</v>
       </c>
       <c r="F3">
-        <v>2066</v>
+        <v>1710.3963098698341</v>
       </c>
       <c r="G3">
-        <v>1832</v>
+        <v>1518.3280033960666</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -420,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2106</v>
+        <v>1643.378296910324</v>
       </c>
       <c r="C4">
-        <v>2298</v>
+        <v>1878.1383890834443</v>
       </c>
       <c r="D4">
-        <v>2102</v>
+        <v>1726.2279912607637</v>
       </c>
       <c r="E4">
-        <v>2204</v>
+        <v>1868.3978372941028</v>
       </c>
       <c r="F4">
-        <v>2162</v>
+        <v>1789.8726146846957</v>
       </c>
       <c r="G4">
-        <v>1909</v>
+        <v>1582.144191311731</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -443,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2181</v>
+        <v>1701.9031650339109</v>
       </c>
       <c r="C5">
-        <v>2387</v>
+        <v>1950.8774302620459</v>
       </c>
       <c r="D5">
-        <v>2202</v>
+        <v>1808.3511116823033</v>
       </c>
       <c r="E5">
-        <v>2266</v>
+        <v>1920.9571230982019</v>
       </c>
       <c r="F5">
-        <v>2281</v>
+        <v>1888.3901175281178</v>
       </c>
       <c r="G5">
-        <v>1994</v>
+        <v>1652.5906325173344</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -466,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2304</v>
+        <v>1797.8839487565938</v>
       </c>
       <c r="C6">
-        <v>2504</v>
+        <v>2046.500664170994</v>
       </c>
       <c r="D6">
-        <v>2275</v>
+        <v>1868.3009895900273</v>
       </c>
       <c r="E6">
-        <v>2346</v>
+        <v>1988.7755563938138</v>
       </c>
       <c r="F6">
-        <v>2390</v>
+        <v>1978.6288386199919</v>
       </c>
       <c r="G6">
-        <v>2083</v>
+        <v>1726.3522003679075</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -489,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2402</v>
+        <v>1874.3564431047475</v>
       </c>
       <c r="C7">
-        <v>2612</v>
+        <v>2134.7682647023307</v>
       </c>
       <c r="D7">
-        <v>2343</v>
+        <v>1924.1447114766743</v>
       </c>
       <c r="E7">
-        <v>2463</v>
+        <v>2087.9600150886458</v>
       </c>
       <c r="F7">
-        <v>2447</v>
+        <v>2025.8178946038161</v>
       </c>
       <c r="G7">
-        <v>2195</v>
+        <v>1819.1757464270556</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2514</v>
+        <v>1961.7535795026374</v>
       </c>
       <c r="C8">
-        <v>2685</v>
+        <v>2194.4306243207343</v>
       </c>
       <c r="D8">
-        <v>2408</v>
+        <v>1977.5247397506751</v>
       </c>
       <c r="E8">
-        <v>2541</v>
+        <v>2154.0829875518671</v>
       </c>
       <c r="F8">
-        <v>2553</v>
+        <v>2113.5729811702258</v>
       </c>
       <c r="G8">
-        <v>2296</v>
+        <v>1902.8826942125374</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -535,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2621</v>
+        <v>2045.2490580256217</v>
       </c>
       <c r="C9">
-        <v>2780</v>
+        <v>2272.0734210844103</v>
       </c>
       <c r="D9">
-        <v>2512</v>
+        <v>2062.932784989076</v>
       </c>
       <c r="E9">
-        <v>2657</v>
+        <v>2252.4197158305042</v>
       </c>
       <c r="F9">
-        <v>2652</v>
+        <v>2195.5329205105518</v>
       </c>
       <c r="G9">
-        <v>2374</v>
+        <v>1967.5276637894442</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2708</v>
+        <v>2113.1379050489827</v>
       </c>
       <c r="C10">
-        <v>2927</v>
+        <v>2392.2154329187297</v>
       </c>
       <c r="D10">
-        <v>2652</v>
+        <v>2177.9051535792319</v>
       </c>
       <c r="E10">
-        <v>2796</v>
+        <v>2370.2542436816298</v>
       </c>
       <c r="F10">
-        <v>2757</v>
+        <v>2282.4601289018065</v>
       </c>
       <c r="G10">
-        <v>2479</v>
+        <v>2054.5497382198955</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -581,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2979</v>
+        <v>2324.6077618688769</v>
       </c>
       <c r="C11">
-        <v>3110</v>
+        <v>2541.7799782634952</v>
       </c>
       <c r="D11">
-        <v>2845</v>
+        <v>2336.4027759928035</v>
       </c>
       <c r="E11">
-        <v>3021</v>
+        <v>2560.9935873255376</v>
       </c>
       <c r="F11">
-        <v>3005</v>
+        <v>2487.7739163401993</v>
       </c>
       <c r="G11">
-        <v>2717</v>
+        <v>2251.7997735955855</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -604,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>3148</v>
+        <v>2456.4837980406933</v>
       </c>
       <c r="C12">
-        <v>3338</v>
+        <v>2728.1226904963173</v>
       </c>
       <c r="D12">
-        <v>3011</v>
+        <v>2472.727155892559</v>
       </c>
       <c r="E12">
-        <v>3239</v>
+        <v>2745.7988180560797</v>
       </c>
       <c r="F12">
-        <v>3200</v>
+        <v>2649.2101604953868</v>
       </c>
       <c r="G12">
-        <v>2866</v>
+        <v>2375.2882411207024</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3371</v>
+        <v>2630.4977392614919</v>
       </c>
       <c r="C13">
-        <v>3530</v>
+        <v>2885.0428692186938</v>
       </c>
       <c r="D13">
-        <v>3251</v>
+        <v>2669.8226449042545</v>
       </c>
       <c r="E13">
-        <v>3455</v>
+        <v>2928.9085879542313</v>
       </c>
       <c r="F13">
-        <v>3438</v>
+        <v>2846.2451661822311</v>
       </c>
       <c r="G13">
-        <v>3048</v>
+        <v>2526.1265034668181</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3573</v>
+        <v>2788.1247174076866</v>
       </c>
       <c r="C14">
-        <v>3776</v>
+        <v>3086.0968482067387</v>
       </c>
       <c r="D14">
-        <v>3420</v>
+        <v>2808.6107184166563</v>
       </c>
       <c r="E14">
-        <v>3643</v>
+        <v>3088.2819061989189</v>
       </c>
       <c r="F14">
-        <v>3614</v>
+        <v>2991.9517250094773</v>
       </c>
       <c r="G14">
-        <v>3242</v>
+        <v>2686.9101457478428</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -673,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3729</v>
+        <v>2909.8564431047475</v>
       </c>
       <c r="C15">
-        <v>3997</v>
+        <v>3266.718512256974</v>
       </c>
       <c r="D15">
-        <v>3641</v>
+        <v>2990.1028145482592</v>
       </c>
       <c r="E15">
-        <v>3820</v>
+        <v>3238.3301898654595</v>
       </c>
       <c r="F15">
-        <v>3793</v>
+        <v>3140.1419183621883</v>
       </c>
       <c r="G15">
-        <v>3478</v>
+        <v>2882.5026178010476</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3772</v>
+        <v>2943.4107008289375</v>
       </c>
       <c r="C16">
-        <v>3993</v>
+        <v>3263.4493418669244</v>
       </c>
       <c r="D16">
-        <v>3748</v>
+        <v>3077.9745533993064</v>
       </c>
       <c r="E16">
-        <v>3907</v>
+        <v>3312.0827360744374</v>
       </c>
       <c r="F16">
-        <v>3959</v>
+        <v>3277.5696954378864</v>
       </c>
       <c r="G16">
-        <v>3423</v>
+        <v>2836.9196264327161</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -719,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3883</v>
+        <v>3030.0275056518462</v>
       </c>
       <c r="C17">
-        <v>4066</v>
+        <v>3323.1117014853285</v>
       </c>
       <c r="D17">
-        <v>3776</v>
+        <v>3100.9690271173376</v>
       </c>
       <c r="E17">
-        <v>3930</v>
+        <v>3331.5805356469259</v>
       </c>
       <c r="F17">
-        <v>3915</v>
+        <v>3241.1430557310746</v>
       </c>
       <c r="G17">
-        <v>3487</v>
+        <v>2889.9616527522294</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -742,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>3876</v>
+        <v>3024.565184626978</v>
       </c>
       <c r="C18">
-        <v>4080</v>
+        <v>3334.5537978505017</v>
       </c>
       <c r="D18">
-        <v>3797</v>
+        <v>3118.2148824058609</v>
       </c>
       <c r="E18">
-        <v>3935</v>
+        <v>3335.8191877279014</v>
       </c>
       <c r="F18">
-        <v>3952</v>
+        <v>3271.7745482118025</v>
       </c>
       <c r="G18">
-        <v>3498</v>
+        <v>2899.0782510258955</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -765,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>3924</v>
+        <v>3062.0211002260739</v>
       </c>
       <c r="C19">
-        <v>4120</v>
+        <v>3367.2455017509965</v>
       </c>
       <c r="D19">
-        <v>3824</v>
+        <v>3140.3881249196766</v>
       </c>
       <c r="E19">
-        <v>3949</v>
+        <v>3347.6874135546336</v>
       </c>
       <c r="F19">
-        <v>4013</v>
+        <v>3322.2751168962459</v>
       </c>
       <c r="G19">
-        <v>3530</v>
+        <v>2925.5992641856524</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>3918</v>
+        <v>3057.3391107761868</v>
       </c>
       <c r="C20">
-        <v>4113</v>
+        <v>3361.5244535684101</v>
       </c>
       <c r="D20">
-        <v>3841</v>
+        <v>3154.3490553913384</v>
       </c>
       <c r="E20">
-        <v>3950</v>
+        <v>3348.5351439708288</v>
       </c>
       <c r="F20">
-        <v>3961</v>
+        <v>3279.2254517881961</v>
       </c>
       <c r="G20">
-        <v>3557</v>
+        <v>2947.9763690391969</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -811,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>3919</v>
+        <v>3058.1194423511679</v>
       </c>
       <c r="C21">
-        <v>4131</v>
+        <v>3376.2357203236329</v>
       </c>
       <c r="D21">
-        <v>3825</v>
+        <v>3141.2093561238921</v>
       </c>
       <c r="E21">
-        <v>3918</v>
+        <v>3321.4077706525841</v>
       </c>
       <c r="F21">
-        <v>3964</v>
+        <v>3281.7090863136605</v>
       </c>
       <c r="G21">
-        <v>3551</v>
+        <v>2943.0036790717427</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>3918</v>
+        <v>3057.3391107761868</v>
       </c>
       <c r="C22">
-        <v>4151</v>
+        <v>3392.5815722738803</v>
       </c>
       <c r="D22">
-        <v>3874</v>
+        <v>3181.4496851304466</v>
       </c>
       <c r="E22">
-        <v>3975</v>
+        <v>3369.7284043757072</v>
       </c>
       <c r="F22">
-        <v>3955</v>
+        <v>3274.2581827372669</v>
       </c>
       <c r="G22">
-        <v>3529</v>
+        <v>2924.77048252441</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -857,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>3960</v>
+        <v>3090.1130369253956</v>
       </c>
       <c r="C23">
-        <v>4144</v>
+        <v>3386.8605240912939</v>
       </c>
       <c r="D23">
-        <v>3885</v>
+        <v>3190.4832283768155</v>
       </c>
       <c r="E23">
-        <v>3976</v>
+        <v>3370.5761347919024</v>
       </c>
       <c r="F23">
-        <v>3956</v>
+        <v>3275.086060912422</v>
       </c>
       <c r="G23">
-        <v>3532</v>
+        <v>2927.2568275081371</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
